--- a/biology/Botanique/Dothistroma_septosporum/Dothistroma_septosporum.xlsx
+++ b/biology/Botanique/Dothistroma_septosporum/Dothistroma_septosporum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dothistroma septosporum est l'une des espèces de champignons ascomycètes de la famille des Mycosphaerellaceae responsable de la maladie des bandes rouges du Pin. 
 </t>
@@ -511,19 +523,21 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cytosporina septospora Dorog.[1]
-Dothistroma pini var. keniense M.H. Ivory[1]
-Dothistroma pini var. lineare Thyr &amp; C.G. Shaw[1]
-Dothistroma pini Hulbary[1]
-Dothistroma septosporum var. keniense (M.H. Ivory) B. Sutton[1]
-Dothistroma septosporum var. lineare (Thyr &amp; D.E. Shaw) B. Sutton[1]
-Dothistroma septosporum (G. Doroguine) M. Morelet[1]
-Eruptio pini (Rostr.) M.E. Barr[1]
-Mycosphaerella pini Rostr. (préféré par BioLib)[1]
-Scirrhia pini A. Funk &amp; A.K. Parker[1]
-Septoriella septospora (Dorog.) Sacc.[1]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cytosporina septospora Dorog.
+Dothistroma pini var. keniense M.H. Ivory
+Dothistroma pini var. lineare Thyr &amp; C.G. Shaw
+Dothistroma pini Hulbary
+Dothistroma septosporum var. keniense (M.H. Ivory) B. Sutton
+Dothistroma septosporum var. lineare (Thyr &amp; D.E. Shaw) B. Sutton
+Dothistroma septosporum (G. Doroguine) M. Morelet
+Eruptio pini (Rostr.) M.E. Barr
+Mycosphaerella pini Rostr. (préféré par BioLib)
+Scirrhia pini A. Funk &amp; A.K. Parker
+Septoriella septospora (Dorog.) Sacc.</t>
         </is>
       </c>
     </row>
@@ -551,9 +565,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (2 janvier 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (2 janvier 2023) :
 non-classé Dothistroma septosporum NZE10</t>
         </is>
       </c>
